--- a/pred_ohlcv/54_21/2020-01-19 ZIL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 ZIL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>825778.7615846961</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>913778.7615846961</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>913778.7615846961</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>913778.7615846961</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>929132.5871846961</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>601595.3270846962</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -938,7 +938,7 @@
         <v>1002975.815771049</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1009902.328271049</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1016400.623471049</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1016512.454171049</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1016380.761171049</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>988663.7611710489</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>1201712.591871049</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>1185636.629971049</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>1172482.164571049</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>1183818.542771049</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>1170434.564471049</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>1170434.564471049</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1170434.564471049</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1118462.755471049</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1112462.755471049</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1112272.755471049</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1123498.342371049</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1123498.342371049</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>1288253.957771049</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>1288253.957771049</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>1288370.462871049</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>1146990.556571049</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1152990.556571049</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>1152990.556571049</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1122990.556571049</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1122990.556571049</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1122990.556571049</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1122990.556571049</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1132905.474171049</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1073654.437871049</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1073654.437871049</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1073654.437871049</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1063500.699871049</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1049572.292371049</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>862616.7335710488</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>742616.7335710488</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-512387.1128289512</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-462128.4045289512</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-241327.8736289513</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-217362.7151289513</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-145362.7151289513</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>78313.89387104874</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>90056.75747104872</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>74301.83307104872</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>46746.83307104872</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>46242.59057104872</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>50390.41667104872</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>68390.41667104872</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-19 ZIL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 ZIL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>825778.7615846961</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>913778.7615846961</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>913778.7615846961</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>913778.7615846961</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>929132.5871846961</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>601595.3270846962</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -938,7 +938,7 @@
         <v>1002975.815771049</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1010745.572571049</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1004920.342271049</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1004920.342271049</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>979125.6422710487</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>985125.6422710487</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1018125.642271049</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1016400.623471049</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>988663.7611710489</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>1172482.164571049</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>1183818.542771049</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>1170434.564471049</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>1170434.564471049</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1170434.564471049</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1118462.755471049</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1118462.755471049</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1112462.755471049</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1112272.755471049</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1123498.342371049</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1123498.342371049</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>1288253.957771049</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>1288370.462871049</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>1146990.556571049</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1152990.556571049</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>1152990.556571049</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1122990.556571049</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1122990.556571049</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1122990.556571049</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1122990.556571049</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1132905.474171049</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1073654.437871049</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1073654.437871049</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1073654.437871049</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1063500.699871049</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>742616.7335710488</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>742616.7335710488</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>742616.7335710488</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>589395.6344710488</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>594525.9811710488</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>78313.89387104874</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>78813.89387104874</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>78613.89387104874</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>78613.89387104874</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>85520.63767104874</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>103315.0869710487</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>107053.0912710487</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>106776.1055710487</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>106951.9851710487</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>90056.75747104872</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>74301.83307104872</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>46746.83307104872</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>46242.59057104872</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>50390.41667104872</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>68390.41667104872</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
